--- a/data/HR1/A_KPC_35_3/A_KPC_35_3_base.xlsx
+++ b/data/HR1/A_KPC_35_3/A_KPC_35_3_base.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\HR1\A_KPC_35_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\HR1\A_KPC_35_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90EE0F10-0FB4-4C7C-A3A2-A8DB8CE76719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF15C59-65AE-429A-8255-9B9340969F01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1950" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -420,7 +420,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>1.2500000000000001E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">

--- a/data/HR1/A_KPC_35_3/A_KPC_35_3_base.xlsx
+++ b/data/HR1/A_KPC_35_3/A_KPC_35_3_base.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\HR1\A_KPC_35_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF15C59-65AE-429A-8255-9B9340969F01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B5955EB-B556-4E57-A6AB-CF4101A5C6B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
